--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_with_only_nonprofiled_in_ga/Oracle - only nonprofiled.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_with_only_nonprofiled_in_ga/Oracle - only nonprofiled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_ga_only_has_nonprofiled_consumption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_with_only_nonprofiled_in_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F639B-E9E7-4EC3-9772-7E070943D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E956D23-F929-4A4A-802D-B521DAB2E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="125">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -1141,9 +1141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1181,7 +1181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1287,7 +1287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1429,7 +1429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1442,8 +1442,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1637,11 +1637,11 @@
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
-        <f t="array" ref="AE2:AE3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
+        <f t="array" ref="AE2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AE28:AE41,AE28:AE41 &lt;&gt; "")))</f>
         <v>1000000000000</v>
       </c>
       <c r="AF2" s="27" t="str" cm="1">
-        <f t="array" ref="AF2:AF3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
+        <f t="array" ref="AF2">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(AF28:AF40,AF28:AF40 &lt;&gt; "")))</f>
         <v>1100000000000</v>
       </c>
       <c r="AG2" s="27" t="str">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[settlement_method],"E02",Tabel1342323[resolution],"PT15M")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U3" s="42">
         <f>SUMIFS(Tabel1342323[Quarter1],Tabel1342323[settlement_method],"E02",Tabel1342323[resolution],"PT15M")</f>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="X3" s="42">
         <f>SUMIFS(Tabel1342323[Quarter4],Tabel1342323[settlement_method],"E02",Tabel1342323[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
@@ -1719,12 +1719,8 @@
       <c r="AD3" s="24" t="str">
         <v>801</v>
       </c>
-      <c r="AE3" s="24" t="str">
-        <v>3000000000000</v>
-      </c>
-      <c r="AF3" s="24" t="str">
-        <v>2200000000000</v>
-      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
       <c r="AG3" s="24"/>
       <c r="AH3" s="24" t="str">
         <v>801</v>
@@ -1844,7 +1840,7 @@
       </c>
       <c r="T5" s="9">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT15M")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U5" s="42">
         <f>SUMIFS(Tabel1342323[Quarter1],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT15M")</f>
@@ -1860,7 +1856,7 @@
       </c>
       <c r="X5" s="42">
         <f>SUMIFS(Tabel1342323[Quarter4],Tabel1342323[type],"E17",Tabel1342323[resolution],"PT15M")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
@@ -1891,10 +1887,12 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12">
+        <v>10</v>
+      </c>
       <c r="J6" s="43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>103</v>
@@ -2439,15 +2437,15 @@
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U14,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U14,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U14" s="26" t="str">
         <f>IF(AE$3=0,"",AE$3)</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V14" s="20">
         <f>SUMIFS(Tabel1342323[TotalHour],Tabel1342323[es_id],U14,IF(B$2="production",Tabel1342323[type],Tabel1342323[settlement_method]),AG$2,Tabel1342323[resolution],"PT1H")/4</f>
@@ -2574,15 +2572,15 @@
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U15,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U15,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U15" s="26" t="str">
         <f t="shared" ref="U15:V17" si="3">U$14</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="3"/>
@@ -2677,9 +2675,7 @@
       <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="41"/>
@@ -2710,15 +2706,15 @@
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U16,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U16,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="3"/>
@@ -2828,15 +2824,15 @@
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[ga_id],MATCH(U17,Tabel1342323[es_id],0)),"")</f>
-        <v>800</v>
+        <v/>
       </c>
       <c r="T17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(Tabel1342323[brp_id],MATCH(U17,Tabel1342323[es_id],0)),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="U17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="3"/>
@@ -3410,7 +3406,7 @@
         <v>glmp</v>
       </c>
       <c r="C22" s="16" t="str">
-        <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E22=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E22=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D22" s="15" t="s">
@@ -3552,7 +3548,7 @@
         <v>glmp</v>
       </c>
       <c r="C23" s="16" t="str">
-        <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E23=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E23=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D23" s="15" t="s">
@@ -3697,7 +3693,7 @@
         <v>glmp</v>
       </c>
       <c r="C24" s="16" t="str">
-        <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E24=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E24=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D24" s="15" t="s">
@@ -3845,7 +3841,7 @@
         <v>glmp</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E25=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E25=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D25" s="15" t="s">
@@ -3865,7 +3861,7 @@
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4.021</v>
+        <v>0</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
@@ -3877,7 +3873,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>4.0210000000000008</v>
+        <v>0</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -3993,27 +3989,27 @@
         <v/>
       </c>
       <c r="C26" s="16" t="str">
-        <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E26=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E26=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <v/>
       </c>
       <c r="D26" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G26="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G26" s="31" t="str">
         <f>IF(B$1="ga",IF(E26="","","null"),IF(B$1="ga_es",IF(F26="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F26="","",INDEX(Tabel1342323[brp_id],MATCH(F26,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
@@ -4135,27 +4131,27 @@
         <v/>
       </c>
       <c r="C27" s="16" t="str">
-        <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E27=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E27=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <v/>
       </c>
       <c r="D27" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G27="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G27" s="31" t="str">
         <f>IF(B$1="ga",IF(E27="","","null"),IF(B$1="ga_es",IF(F27="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F27="","",INDEX(Tabel1342323[brp_id],MATCH(F27,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
@@ -4286,27 +4282,27 @@
         <v/>
       </c>
       <c r="C28" s="16" t="str">
-        <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E28=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E28=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <v/>
       </c>
       <c r="D28" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G28="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G28" s="31" t="str">
         <f>IF(B$1="ga",IF(E28="","","null"),IF(B$1="ga_es",IF(F28="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F28="","",INDEX(Tabel1342323[brp_id],MATCH(F28,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
@@ -4437,27 +4433,27 @@
         <v/>
       </c>
       <c r="C29" s="16" t="str">
-        <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E29=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
-        <v>skmp</v>
+        <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E29=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <v/>
       </c>
       <c r="D29" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v/>
       </c>
       <c r="F29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AE$3=0,"",AE$3),IF(B$1="ga_brp",IF(G29="","","null"))))</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G29" s="31" t="str">
         <f>IF(B$1="ga",IF(E29="","","null"),IF(B$1="ga_es",IF(F29="","","null"),IF(B$1="ga_brp",IF(AF$3=0,"",AF$3),IF(F29="","",INDEX(Tabel1342323[brp_id],MATCH(F29,Tabel1342323[es_id],0),1)))))</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
@@ -4510,7 +4506,7 @@
       <c r="AD29" s="36"/>
       <c r="AF29" s="36" t="str" cm="1">
         <f t="array" ref="AF29">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF14)*(Tabel1342323[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF14)*(Tabel1342323[settlement_method]=AG$2),""),,10))),"")</f>
-        <v>2200000000000</v>
+        <v/>
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
@@ -4579,7 +4575,7 @@
         <v/>
       </c>
       <c r="C30" s="16" t="str">
-        <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E30=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E30=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D30" s="15" t="s">
@@ -4722,7 +4718,7 @@
         <v/>
       </c>
       <c r="C31" s="16" t="str">
-        <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E31=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E31=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D31" s="15" t="s">
@@ -4795,7 +4791,7 @@
       <c r="AD31" s="36"/>
       <c r="AE31" s="36" t="str" cm="1">
         <f t="array" ref="AE31">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE15)*(Tabel1342323[type]="E18"),""),,9)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[es_id]=AE15)*(Tabel1342323[settlement_method]=AG$2),""),,9))),"")</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="AF31" s="36" t="str" cm="1">
         <f t="array" ref="AF31">IFERROR(IF($B$2="production",_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF16)*(Tabel1342323[type]=$AG$2),""),,10)),_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(Tabel1342323[[type]:[brp_id]],(Tabel1342323[brp_id]=AF16)*(Tabel1342323[settlement_method]=AG$2),""),,10))),"")</f>
@@ -4868,7 +4864,7 @@
         <v/>
       </c>
       <c r="C32" s="16" t="str">
-        <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E32=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E32=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D32" s="15" t="s">
@@ -5014,7 +5010,7 @@
         <v/>
       </c>
       <c r="C33" s="16" t="str">
-        <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E33=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E33=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D33" s="15" t="s">
@@ -5160,7 +5156,7 @@
         <v/>
       </c>
       <c r="C34" s="16" t="str">
-        <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E34=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E34=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D34" s="15" t="s">
@@ -5283,7 +5279,7 @@
         <v/>
       </c>
       <c r="C35" s="16" t="str">
-        <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E35=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E35=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D35" s="15" t="s">
@@ -5417,7 +5413,7 @@
         <v/>
       </c>
       <c r="C36" s="16" t="str">
-        <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E36=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E36=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D36" s="15" t="s">
@@ -5553,7 +5549,7 @@
         <v/>
       </c>
       <c r="C37" s="16" t="str">
-        <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E37=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E37=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D37" s="15" t="s">
@@ -5690,7 +5686,7 @@
         <v/>
       </c>
       <c r="C38" s="16" t="str">
-        <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E38=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E38=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D38" s="15" t="s">
@@ -5724,7 +5720,6 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="2"/>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
@@ -5830,7 +5825,7 @@
         <v/>
       </c>
       <c r="C39" s="16" t="str">
-        <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E39=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E39=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D39" s="15" t="s">
@@ -5970,7 +5965,7 @@
         <v/>
       </c>
       <c r="C40" s="16" t="str">
-        <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E40=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E40=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D40" s="15" t="s">
@@ -6110,7 +6105,7 @@
         <v/>
       </c>
       <c r="C41" s="16" t="str">
-        <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E41=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E41=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D41" s="15" t="s">
@@ -6244,7 +6239,7 @@
         <v/>
       </c>
       <c r="C42" s="16" t="str">
-        <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E42=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E42=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D42" s="15" t="s">
@@ -6380,7 +6375,7 @@
         <v/>
       </c>
       <c r="C43" s="16" t="str">
-        <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E43=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E43=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D43" s="15" t="s">
@@ -6517,7 +6512,7 @@
         <v/>
       </c>
       <c r="C44" s="16" t="str">
-        <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E44=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E44=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D44" s="15" t="s">
@@ -6651,7 +6646,7 @@
         <v/>
       </c>
       <c r="C45" s="16" t="str">
-        <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(Tabel1342323[es_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E45=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
+        <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(Tabel1342323[es_id],MATCH("skmp",Tabel1342323[note],0),1),"skmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(Tabel1342323[brp_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp",""),IF(E45=INDEX(Tabel1342323[ga_id],MATCH("SKMP",Tabel1342323[note],0),1),"skmp","")))</f>
         <v/>
       </c>
       <c r="D45" s="15" t="s">
@@ -6787,6 +6782,7 @@
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
+      <c r="J46" s="2"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
@@ -9296,7 +9292,7 @@
       </c>
       <c r="H69" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>4.0210000000000008</v>
+        <v>-5.9789999999999992</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9603,7 +9599,7 @@
       </c>
       <c r="H72" s="32">
         <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>4.0210000000000008</v>
+        <v>0</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -10179,7 +10175,7 @@
       </c>
       <c r="H78" s="32">
         <f>IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
-        <v>0</v>
+        <v>5.9789999999999992</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -11100,7 +11096,7 @@
       </c>
       <c r="H87" s="32" t="str">
         <f>SUBSTITUTE(netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4,",",".")</f>
-        <v>6.223</v>
+        <v>12.202</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -40632,11 +40628,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40816,26 +40813,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40859,9 +40847,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>